--- a/public/inc/委刊單.xlsx
+++ b/public/inc/委刊單.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glide/data/dev/web_laravel/10.110.150.252/home/web/bus/public/inc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-38260" yWindow="460" windowWidth="20740" windowHeight="20540"/>
+    <workbookView xWindow="360" yWindow="315" windowWidth="21240" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="廣告委刊單" sheetId="1" r:id="rId1"/>
@@ -17,20 +12,12 @@
   <definedNames>
     <definedName name="客戶類型">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>中天電視 新媒體廣告委刊單</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -94,6 +81,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>廣告刊登類別</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -118,11 +109,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>必PO TV廣告委刊業務</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快點TV廣告委刊業務</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">    華南銀行-萬華分行(008-1577)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    帳號：157-10-0146898</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他專案執行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -195,7 +198,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>中天FB社群</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>發票日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中天影音平台專案</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -236,7 +247,7 @@
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0\ &quot;元整&quot;;[Red]\-&quot;$&quot;#,##0\ &quot;元整&quot;"/>
     <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,6 +315,13 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -326,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -336,26 +354,26 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -364,7 +382,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -372,22 +390,22 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -396,24 +414,24 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -423,7 +441,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -431,14 +449,14 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,45 +464,45 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -492,94 +510,94 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -587,10 +605,10 @@
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -598,10 +616,10 @@
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -609,53 +627,53 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,171 +681,171 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,278 +853,260 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1132,6 +1132,50 @@
       <alignment horizontal="distributed" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1168,15 +1212,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
@@ -1227,30 +1271,100 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1261,7 +1375,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1269,256 +1383,132 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1535,8 +1525,712 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>必PO TV網頁版</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>必PO TV手機版</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>必PO TV APP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>快點TV網頁版</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>快點TV手機版</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>快點TV APP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>中天影音平台專案</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>866775</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>中天FB社群</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>其他專案</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>733425</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>現金</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>733425</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="新細明體"/>
+                  <a:ea typeface="新細明體"/>
+                </a:rPr>
+                <a:t>匯款</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1627,12 +2321,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1662,12 +2356,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1870,423 +2564,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="21" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="40" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="29" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="30" t="s">
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="41" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="77"/>
     </row>
-    <row r="4" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110"/>
     </row>
-    <row r="5" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="17" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="110"/>
     </row>
-    <row r="6" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="17" t="s">
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="110"/>
     </row>
-    <row r="7" spans="1:8" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:8" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="74"/>
+      <c r="B7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
     </row>
-    <row r="8" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="105"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
     </row>
-    <row r="9" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="107"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="78" t="str">
+        <f>IF(C9=0,"  (實際走期依排期表)",E9-C9+1)</f>
+        <v xml:space="preserve">  (實際走期依排期表)</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
     </row>
-    <row r="10" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+    <row r="10" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+    <row r="11" spans="1:8" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:8" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="B12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="D12" s="98"/>
+      <c r="E12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="F12" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="30">
+        <v>2</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="30">
+        <v>3</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="30">
+        <v>4</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="30">
+        <v>5</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="21" t="str">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="32" t="str">
         <f>IF(SUM(E13:E17)=0,"",SUM(E13:E17))</f>
         <v/>
       </c>
       <c r="F18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+        <v>43</v>
+      </c>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
     </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="22" t="str">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="73"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="93"/>
+      <c r="E19" s="33" t="str">
         <f>IF(SUM(E13:E17)=0,"",ROUND(E18*0.05,0))</f>
         <v/>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="F19" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
     </row>
-    <row r="20" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="23" t="str">
+    <row r="20" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="74"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="34" t="str">
         <f>IF(SUM(E18:E19)=0,"",SUM(E18:E19))</f>
         <v/>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
+    </row>
+    <row r="21" spans="1:8" ht="311.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+    </row>
+    <row r="22" spans="1:8" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
+      <c r="F23" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="55"/>
     </row>
-    <row r="21" spans="1:8" ht="311.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="70"/>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="101" t="s">
-        <v>33</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="70"/>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="104"/>
-      <c r="H23" s="102"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="70"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="90"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="70"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="90"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="70"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="90"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="70"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="90"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="90"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="90"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="91"/>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="71"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="44">
-    <mergeCell ref="A22:C23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F23:G23"/>
+  <sheetProtection password="EA57" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="42">
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="F9:H9"/>
@@ -2298,35 +3030,20 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A24:C30"/>
     <mergeCell ref="D24:D30"/>
     <mergeCell ref="E24:E30"/>
     <mergeCell ref="F24:G30"/>
     <mergeCell ref="H24:H30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C10:H11"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2335,5 +3052,254 @@
     <oddHeader>&amp;R&amp;"微軟正黑體,標準"&amp;10中天傳真：02-6600-8159</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId6" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId7" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId8" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId9" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId10" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId11" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId12" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId13" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId14" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>733425</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/public/inc/委刊單.xlsx
+++ b/public/inc/委刊單.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glide/data/dev/web_laravel/10.110.150.252/home/web/bus/public/inc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="20720" windowHeight="15860"/>
+    <workbookView xWindow="360" yWindow="315" windowWidth="21240" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="廣告委刊單" sheetId="1" r:id="rId1"/>
@@ -17,15 +12,7 @@
   <definedNames>
     <definedName name="客戶類型">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -197,6 +184,9 @@
   <si>
     <t>發票日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  (實際走期依排期表)</t>
   </si>
   <si>
     <r>
@@ -224,9 +214,6 @@
       <t xml:space="preserve"> 次日起算30天內支付兌現全額。</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  (實際走期依排期表)</t>
   </si>
 </sst>
 </file>
@@ -329,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -339,26 +326,26 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -367,7 +354,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -375,22 +362,22 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -399,24 +386,24 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -426,7 +413,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -434,14 +421,14 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,45 +436,45 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -495,94 +482,94 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -590,10 +577,10 @@
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -601,10 +588,10 @@
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -612,53 +599,53 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,171 +653,171 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,233 +825,233 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1073,7 +1060,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1081,30 +1068,41 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1118,62 +1116,58 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1204,14 +1198,22 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1392,15 +1394,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1419,65 +1412,100 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1587,12 +1615,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1622,12 +1650,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1831,420 +1859,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="8" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="99" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="28" t="s">
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="29" t="s">
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="74"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
-      <c r="B4" s="13" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="105"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
-      <c r="B5" s="13" t="s">
+      <c r="G4" s="97"/>
+      <c r="H4" s="100"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="105"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="13" t="s">
+      <c r="G5" s="97"/>
+      <c r="H5" s="100"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="105"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="14" t="s">
+      <c r="G6" s="97"/>
+      <c r="H6" s="100"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72"/>
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="70"/>
-      <c r="B9" s="13" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="77" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+    </row>
+    <row r="10" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="69" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="90"/>
+      <c r="E12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="83" t="s">
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="70"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="83" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="83" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="70"/>
-      <c r="B18" s="86" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="20" t="str">
+      <c r="D18" s="87"/>
+      <c r="E18" s="19" t="str">
         <f>IF(SUM(E13:E17)=0,"",SUM(E13:E17))</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="90" t="s">
+      <c r="F18" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="71"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="21" t="str">
+      <c r="D19" s="88"/>
+      <c r="E19" s="20" t="str">
         <f>IF(SUM(E13:E17)=0,"",ROUND(E18*0.05,0))</f>
         <v/>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="91" t="s">
+      <c r="F19" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="72"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="22" t="str">
+      <c r="D20" s="89"/>
+      <c r="E20" s="21" t="str">
         <f>IF(SUM(E18:E19)=0,"",SUM(E18:E19))</f>
         <v/>
       </c>
-      <c r="F20" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="1:8" ht="311.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="F20" s="108"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110"/>
+    </row>
+    <row r="21" spans="1:8" ht="311.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="81"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="48" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51" t="s">
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="24" t="s">
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="52"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="67"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="67"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="67"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="67"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="67"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="68"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="68"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="68"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="68"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="68"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="69"/>
     </row>
   </sheetData>
   <sheetProtection password="EA57" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="44">
+  <mergeCells count="40">
     <mergeCell ref="C1:F2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="C3:E3"/>
@@ -2261,13 +2289,11 @@
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F19:H20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:H20"/>
     <mergeCell ref="A24:C30"/>
     <mergeCell ref="D24:D30"/>
     <mergeCell ref="E24:E30"/>
@@ -2285,9 +2311,7 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:H16"/>
     <mergeCell ref="C17:D17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/public/inc/委刊單.xlsx
+++ b/public/inc/委刊單.xlsx
@@ -1198,14 +1198,6 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1219,6 +1211,202 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1290,83 +1478,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1390,122 +1501,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,12 +1882,12 @@
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
@@ -1896,409 +1896,383 @@
     <row r="2" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="96"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="75"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="100"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="100"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="99"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="100"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="103"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="76" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="108"/>
     </row>
     <row r="10" spans="1:8" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:8" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="90"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="34"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="5"/>
       <c r="F17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="84" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="19" t="str">
         <f>IF(SUM(E13:E17)=0,"",SUM(E13:E17))</f>
         <v/>
       </c>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="112"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="88" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="88"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="20" t="str">
         <f>IF(SUM(E13:E17)=0,"",ROUND(E18*0.05,0))</f>
         <v/>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="89" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="21" t="str">
         <f>IF(SUM(E18:E19)=0,"",SUM(E18:E19))</f>
         <v/>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:8" ht="311.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="82"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="113"/>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="49" t="s">
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52" t="s">
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="53"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="104"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="68"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="84"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="68"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="84"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="68"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="84"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="68"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="68"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="84"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="68"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="84"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="69"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="85"/>
     </row>
   </sheetData>
   <sheetProtection password="EA57" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="40">
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F19:H20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A24:C30"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:G30"/>
-    <mergeCell ref="H24:H30"/>
+  <mergeCells count="41">
     <mergeCell ref="C10:H11"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="A22:C23"/>
@@ -2313,6 +2287,33 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A24:C30"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:G30"/>
+    <mergeCell ref="H24:H30"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
